--- a/biology/Botanique/Sapotier_noir/Sapotier_noir.xlsx
+++ b/biology/Botanique/Sapotier_noir/Sapotier_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diospyros digyna, Bois noir
 Le sapotier noir, néflier d’Amérique ou bois noir (Diospyris digyna), est une espèce de plante à fleurs de la famille des Ebenaceae. C'est un arbre tropical originaire du Mexique et d'Amérique centrale.
-Le latex de l'arbre a servi à la préparation des chewing-gums. Il est maintenant cultivé pour ses fruits, appelés sapotes noires (à ne pas confondre avec les sapotes, fruits de Pouteria sapota), ou encore black apples (anglais), ebeno agrios (espagnol)[2]. Le nom maya, tant de l'arbre que du fruit, est taúch.
+Le latex de l'arbre a servi à la préparation des chewing-gums. Il est maintenant cultivé pour ses fruits, appelés sapotes noires (à ne pas confondre avec les sapotes, fruits de Pouteria sapota), ou encore black apples (anglais), ebeno agrios (espagnol). Le nom maya, tant de l'arbre que du fruit, est taúch.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sapotier noir est un gros arbre (hauteur allant jusqu'à 25 m), au feuillage vert. Il porte à la fois des fleurs mâles, femelles et des deux sexes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sapotier noir est un gros arbre (hauteur allant jusqu'à 25 m), au feuillage vert. Il porte à la fois des fleurs mâles, femelles et des deux sexes.
 </t>
         </is>
       </c>
@@ -544,12 +558,49 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Immature le fruit, légèrement ovale, ressemble à une tomate verte. Les sapotes noires non mûres sont très astringentes et irritantes. En murissant, la couleur de la peau passe au vert olive puis au vert-brun et la chair, onctueuse, est alors noire-chocolat d'où son surnom de « caca poule » à La Réunion[3].
-Ayant un goût de chocolat[4], il se mange principalement cuit, ou alors cru, à condition d’être blet, comme pour le kaki ou la nèfle.
-Composition pour 100 g
-– eau : 80 g
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Immature le fruit, légèrement ovale, ressemble à une tomate verte. Les sapotes noires non mûres sont très astringentes et irritantes. En murissant, la couleur de la peau passe au vert olive puis au vert-brun et la chair, onctueuse, est alors noire-chocolat d'où son surnom de « caca poule » à La Réunion.
+Ayant un goût de chocolat, il se mange principalement cuit, ou alors cru, à condition d’être blet, comme pour le kaki ou la nèfle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sapotier_noir</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapotier_noir</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Composition pour 100 g</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">– eau : 80 g
 – protéines : 0.6 g
 – glucides : 13 g
 – graisses : 0.01 g
@@ -559,40 +610,77 @@
 – carotène : 0.19 mg
 – vitamines B3 : 0.2 mg
 – riboflavine B2 : 0.03 mg
-– acide ascorbique C : 191.7 mg[3]
-calories pour 100 g : 45 kcal[4]
-Vertus
-Le fruit contient 2 fois plus de vitamine C que l'orange et de la vitamine A ;
-Il est riche en riboflavine (réparation musculaire), en fer (anti-anémie), magnésium (anti-fatigue) et carotène (anti-oxydant)[3].
+– acide ascorbique C : 191.7 mg
+calories pour 100 g : 45 kcal
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Sapotier_noir</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sapotier_noir</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vertus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit contient 2 fois plus de vitamine C que l'orange et de la vitamine A ;
+Il est riche en riboflavine (réparation musculaire), en fer (anti-anémie), magnésium (anti-fatigue) et carotène (anti-oxydant).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sapotier_noir</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapotier_noir</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce pousse au Mexique et au Guatemala et a été introduite aux Philippines au XVIIe siècle. Elle est également présente à l'île de la Réunion ainsi qu'en Australie. Une autre espèce s'est implantée à proximité des plages de Floride, le sapotier blanc, aux fruits plus sucrés.
 </t>
